--- a/biology/Botanique/Sarcococca_orientalis/Sarcococca_orientalis.xlsx
+++ b/biology/Botanique/Sarcococca_orientalis/Sarcococca_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcococca orientalis est une espèce d'arbuste de la famille des Buxacées.
 Nom chinois : 东方野扇花.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbuste à feuillage persistant, de moins de deux mètres de haut et des croissance très lente. Les feuilles sont alternes, coriaces, vert brillant, entières, oblongues lancéolées.
 Sa floraison est printanière ou automnale. Les fleurs mâles sont sessiles alors que les fleurs femelles sont pétiolées.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est de Chine (Fujian, Guangdong, Jiangxi, Zhejiang).
 </t>
